--- a/Smoke_Suite_Test_Cases_FlipKz_final.xlsx
+++ b/Smoke_Suite_Test_Cases_FlipKz_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java projects\University\SoftQual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Smoke Suite Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -66,33 +66,6 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>Make sure that the data entered by the user forms are validated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate to any page with form. (For example https://www.flip.kz/become_supplier) </t>
-  </si>
-  <si>
-    <t>Enter invalid data</t>
-  </si>
-  <si>
-    <t>Send form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate to any comment page. (For example https://www.flip.kz/reviews?client=563547) </t>
-  </si>
-  <si>
-    <t>1. Expected to see item image</t>
-  </si>
-  <si>
-    <t>In some reviews, the item images are not loaded</t>
-  </si>
-  <si>
-    <t>1. The form must have masks that will restrict entering data in an incorrect form</t>
-  </si>
-  <si>
-    <t>2. The user should receive an alert message stating that the entered data is incorrect</t>
-  </si>
-  <si>
     <t>Mirkhat Asen</t>
   </si>
   <si>
@@ -102,46 +75,7 @@
     <t>TC003</t>
   </si>
   <si>
-    <t>Verify town cookie reliability</t>
-  </si>
-  <si>
-    <t>Navigate to any page</t>
-  </si>
-  <si>
-    <t>Change town from the default one</t>
-  </si>
-  <si>
-    <t>The page should reload with the changed town</t>
-  </si>
-  <si>
-    <t>Navigate to other page</t>
-  </si>
-  <si>
-    <t>The page should not have default or any other town but the previously chosen one</t>
-  </si>
-  <si>
-    <t>Alua Seidemet</t>
-  </si>
-  <si>
     <t>TC004</t>
-  </si>
-  <si>
-    <t>Verify every category button functionality</t>
-  </si>
-  <si>
-    <t>Navigate to main page</t>
-  </si>
-  <si>
-    <t>Press previously not checked category</t>
-  </si>
-  <si>
-    <t>The page should show products from associated category</t>
-  </si>
-  <si>
-    <t>Repeat Step 2 until no categories left</t>
-  </si>
-  <si>
-    <t>Repeat Step 3 for several times</t>
   </si>
   <si>
     <t>Madikhan Sadykov</t>
@@ -150,82 +84,121 @@
     <t xml:space="preserve">TC005 </t>
   </si>
   <si>
-    <t>Verify old product's page availability</t>
-  </si>
-  <si>
-    <t>Navigate to some user's reviews</t>
-  </si>
-  <si>
-    <t>Scroll down the reviews</t>
-  </si>
-  <si>
-    <t>If unloaded product image was found - proceed, else return to step 1</t>
-  </si>
-  <si>
-    <t>Press the product's link and verify whether the page exists</t>
-  </si>
-  <si>
-    <t>The review page should include several reviews</t>
-  </si>
-  <si>
-    <t>The unloaded product image should be found</t>
-  </si>
-  <si>
-    <t>The "404 not found" error should not appear on the screen</t>
-  </si>
-  <si>
-    <t>Completed, bug located</t>
-  </si>
-  <si>
     <t>Completed, no bug located</t>
-  </si>
-  <si>
-    <t>TC006</t>
-  </si>
-  <si>
-    <t>Verify pickup points on contact's page</t>
-  </si>
-  <si>
-    <t>Navigate to https://www.flip.kz/contacts</t>
-  </si>
-  <si>
-    <t>Choose town or city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on a pickup site </t>
-  </si>
-  <si>
-    <t>Contacts page should be shown</t>
-  </si>
-  <si>
-    <t>New pickup sites should appear on the map</t>
-  </si>
-  <si>
-    <t>Sites information should apperar on the map near its location</t>
   </si>
   <si>
     <t>TC007</t>
   </si>
   <si>
-    <t>Verify that FAQ has correct data</t>
+    <t>Complete the registration with right input data</t>
   </si>
   <si>
-    <t>Navigate to https://www.flip.kz/help</t>
+    <t>Complete the login with right input data</t>
   </si>
   <si>
-    <t>Press some question link</t>
+    <t xml:space="preserve">Navigate to the main page. (https://www.flip.kz) </t>
   </si>
   <si>
-    <t>Return to the previous page</t>
+    <t>Press the "Войти" button</t>
   </si>
   <si>
-    <t>Repeat Step 2 until all questions are checked</t>
+    <t>The login form should appear</t>
   </si>
   <si>
-    <t>FAQ page should be shown</t>
+    <t>Input right credentials</t>
   </si>
   <si>
-    <t>The answer to that particular question should be shown</t>
+    <t>Login should be successful</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Attempt to complete the login with wrong credentials</t>
+  </si>
+  <si>
+    <t>Input wrong credentials</t>
+  </si>
+  <si>
+    <t>Main page should appear</t>
+  </si>
+  <si>
+    <t>Verify logout function is working</t>
+  </si>
+  <si>
+    <t>Pre-test: login should be completed</t>
+  </si>
+  <si>
+    <t>Hover over profile in the top-right corner</t>
+  </si>
+  <si>
+    <t>Function list should appear, which includes logout</t>
+  </si>
+  <si>
+    <t>Press the logout button</t>
+  </si>
+  <si>
+    <t>The page should refresh with no user profile</t>
+  </si>
+  <si>
+    <t>Verify being able to order a product</t>
+  </si>
+  <si>
+    <t>Pre-test: login should be completed, the page should be main page.</t>
+  </si>
+  <si>
+    <t>Scroll down the products list and press any product</t>
+  </si>
+  <si>
+    <t>Product page should appear</t>
+  </si>
+  <si>
+    <t>Press the "Оформить заказ" button</t>
+  </si>
+  <si>
+    <t>Press the "Добавить в корзину" button</t>
+  </si>
+  <si>
+    <t>New window should pop up on the screen</t>
+  </si>
+  <si>
+    <t>The page should change to an order form page</t>
+  </si>
+  <si>
+    <t>Input all the right credentials</t>
+  </si>
+  <si>
+    <t>Press the "Сохранить и продолжить" button</t>
+  </si>
+  <si>
+    <t>The ordering process should continue</t>
+  </si>
+  <si>
+    <t>Choose the delivery method and press "Выбрать" button</t>
+  </si>
+  <si>
+    <t>Choose payment type</t>
+  </si>
+  <si>
+    <t>The ordering process should finish successfully</t>
+  </si>
+  <si>
+    <t>Press the "ПОДТВЕРДИТЬ ЗАКАЗ" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC006 </t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Attempt to order a product with wrong address</t>
+  </si>
+  <si>
+    <t>Input all the wrong credentials</t>
+  </si>
+  <si>
+    <t>The ordering process should not continue, an error should pop up</t>
   </si>
 </sst>
 </file>
@@ -296,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -385,34 +358,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -425,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,13 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,9 +483,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -764,15 +710,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z920"/>
+  <dimension ref="A1:Z934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="56.77734375" customWidth="1"/>
     <col min="6" max="6" width="67" customWidth="1"/>
@@ -838,26 +784,20 @@
         <v>12</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="57"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
@@ -866,31 +806,23 @@
       <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
@@ -898,592 +830,759 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27">
+    </row>
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="59">
+        <v>2</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="60">
+        <v>3</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="59"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="E10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22">
-        <v>4</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22">
+      <c r="A15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22">
         <v>3</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:26" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="F20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F22" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="59">
+        <v>5</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
-        <v>2</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="22">
-        <v>4</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="35">
-        <v>2</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="49">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="59">
+        <v>6</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="59">
+        <v>7</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="36">
+        <v>8</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38">
+        <v>9</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
         <v>3</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="52">
-        <v>1</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="56">
-        <v>2</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="56">
-        <v>3</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="49">
+      <c r="E31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="11">
         <v>4</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E32" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="59">
+        <v>5</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="60">
+        <v>6</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="30">
+        <v>2</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="44">
+        <v>3</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="47">
+        <v>1</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="51">
+        <v>2</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="51">
+        <v>3</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="44">
+        <v>4</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
@@ -5816,6 +5915,76 @@
       <c r="C920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
+    </row>
+    <row r="921" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C921" s="4"/>
+      <c r="E921" s="4"/>
+      <c r="F921" s="4"/>
+    </row>
+    <row r="922" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C922" s="4"/>
+      <c r="E922" s="4"/>
+      <c r="F922" s="4"/>
+    </row>
+    <row r="923" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C923" s="4"/>
+      <c r="E923" s="4"/>
+      <c r="F923" s="4"/>
+    </row>
+    <row r="924" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C924" s="4"/>
+      <c r="E924" s="4"/>
+      <c r="F924" s="4"/>
+    </row>
+    <row r="925" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C925" s="4"/>
+      <c r="E925" s="4"/>
+      <c r="F925" s="4"/>
+    </row>
+    <row r="926" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C926" s="4"/>
+      <c r="E926" s="4"/>
+      <c r="F926" s="4"/>
+    </row>
+    <row r="927" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C927" s="4"/>
+      <c r="E927" s="4"/>
+      <c r="F927" s="4"/>
+    </row>
+    <row r="928" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C928" s="4"/>
+      <c r="E928" s="4"/>
+      <c r="F928" s="4"/>
+    </row>
+    <row r="929" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C929" s="4"/>
+      <c r="E929" s="4"/>
+      <c r="F929" s="4"/>
+    </row>
+    <row r="930" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C930" s="4"/>
+      <c r="E930" s="4"/>
+      <c r="F930" s="4"/>
+    </row>
+    <row r="931" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C931" s="4"/>
+      <c r="E931" s="4"/>
+      <c r="F931" s="4"/>
+    </row>
+    <row r="932" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C932" s="4"/>
+      <c r="E932" s="4"/>
+      <c r="F932" s="4"/>
+    </row>
+    <row r="933" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C933" s="4"/>
+      <c r="E933" s="4"/>
+      <c r="F933" s="4"/>
+    </row>
+    <row r="934" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C934" s="4"/>
+      <c r="E934" s="4"/>
+      <c r="F934" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Smoke_Suite_Test_Cases_FlipKz_final.xlsx
+++ b/Smoke_Suite_Test_Cases_FlipKz_final.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -199,13 +199,85 @@
   </si>
   <si>
     <t>The ordering process should not continue, an error should pop up</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Verify being able to add the product to favourites</t>
+  </si>
+  <si>
+    <t>Verify being able to delete product from favourites</t>
+  </si>
+  <si>
+    <t>Navigate to the main page (www.flip.kz)</t>
+  </si>
+  <si>
+    <t>Scroll down the products list and choose any product</t>
+  </si>
+  <si>
+    <t>Click the heart icon</t>
+  </si>
+  <si>
+    <t>The product should be added to favourites list</t>
+  </si>
+  <si>
+    <t>Click the heart icon near any product visible</t>
+  </si>
+  <si>
+    <t>Refresh the page</t>
+  </si>
+  <si>
+    <t>Some product should appear</t>
+  </si>
+  <si>
+    <t>The heart icon should become unclicked</t>
+  </si>
+  <si>
+    <t>The product should dissappear</t>
+  </si>
+  <si>
+    <t>Pre-test: Navigate to the "favourites" page, add any product to favourites</t>
+  </si>
+  <si>
+    <t>Find product by search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type "java" into search box </t>
+  </si>
+  <si>
+    <t>We are able to view what is typing in the search box</t>
+  </si>
+  <si>
+    <t>Press submit button</t>
+  </si>
+  <si>
+    <t>We should gain the result set based on the search key word</t>
+  </si>
+  <si>
+    <t>Apply filters to search box</t>
+  </si>
+  <si>
+    <t>Type "java" into search box Press submit button</t>
+  </si>
+  <si>
+    <t>mark "allowed" check box</t>
+  </si>
+  <si>
+    <t>mark "2021 year" check box</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>the sign should appear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -253,6 +325,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,21 +460,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,22 +503,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,13 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,6 +545,81 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -710,17 +838,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z934"/>
+  <dimension ref="A1:Z927"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" customWidth="1"/>
+    <col min="5" max="5" width="59.88671875" customWidth="1"/>
     <col min="6" max="6" width="67" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
@@ -776,602 +904,602 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="25"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="A3" s="15"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="20"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19">
         <v>3</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="28" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="59">
+      <c r="A7" s="15"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="50">
         <v>2</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="60">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="51">
         <v>3</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="59"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="50"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="28" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="A12" s="15"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
         <v>3</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
+      <c r="A20" s="15"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11">
+      <c r="A21" s="15"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
         <v>3</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="11">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="59">
+      <c r="A23" s="15"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="50">
         <v>5</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="59">
+      <c r="A24" s="15"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="50">
         <v>6</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="59">
+      <c r="A25" s="15"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="50">
         <v>7</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="36">
+      <c r="A26" s="15"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="33">
         <v>8</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35">
         <v>9</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="26"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
         <v>1</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16" t="s">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11">
+      <c r="A30" s="15"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>2</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11">
+      <c r="A31" s="15"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>3</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="11">
+      <c r="A32" s="15"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="8">
         <v>4</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="59">
+      <c r="A33" s="15"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="50">
         <v>5</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="60">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="51">
         <v>6</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
@@ -1380,258 +1508,376 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="14">
+      <c r="C36" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="58">
         <v>1</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="16" t="s">
+      <c r="E36" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="G36" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="30">
+      <c r="A37" s="69"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="56">
         <v>2</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="E37" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="61"/>
     </row>
     <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="44">
+      <c r="A38" s="70"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="71">
         <v>3</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
+      <c r="E38" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="47">
+      <c r="C40" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="94">
         <v>1</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="17" t="s">
+      <c r="E40" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="95"/>
+      <c r="G40" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="86"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="85" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="51">
+      <c r="A41" s="96"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="77">
         <v>2</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="E41" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="78"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="82"/>
     </row>
     <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="51">
+      <c r="A42" s="89"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="77">
         <v>3</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="E42" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="82"/>
     </row>
     <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="44">
+      <c r="A43" s="90"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="91">
         <v>4</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
+      <c r="E43" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="84"/>
     </row>
     <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
       <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
+      <c r="A45" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="40">
+        <v>1</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="42"/>
+      <c r="G45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="44">
+        <v>2</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="I47" s="3"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="38">
+        <v>3</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
       <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="40">
+        <v>1</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="44">
+        <v>2</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="38">
+        <v>3</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -5906,37 +6152,37 @@
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
     </row>
-    <row r="919" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
     </row>
-    <row r="920" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
     </row>
-    <row r="921" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
     </row>
-    <row r="922" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
     </row>
-    <row r="923" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
     </row>
-    <row r="924" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
     </row>
-    <row r="925" spans="3:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
@@ -5950,41 +6196,6 @@
       <c r="C927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
-    </row>
-    <row r="928" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C928" s="4"/>
-      <c r="E928" s="4"/>
-      <c r="F928" s="4"/>
-    </row>
-    <row r="929" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C929" s="4"/>
-      <c r="E929" s="4"/>
-      <c r="F929" s="4"/>
-    </row>
-    <row r="930" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C930" s="4"/>
-      <c r="E930" s="4"/>
-      <c r="F930" s="4"/>
-    </row>
-    <row r="931" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C931" s="4"/>
-      <c r="E931" s="4"/>
-      <c r="F931" s="4"/>
-    </row>
-    <row r="932" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C932" s="4"/>
-      <c r="E932" s="4"/>
-      <c r="F932" s="4"/>
-    </row>
-    <row r="933" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C933" s="4"/>
-      <c r="E933" s="4"/>
-      <c r="F933" s="4"/>
-    </row>
-    <row r="934" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C934" s="4"/>
-      <c r="E934" s="4"/>
-      <c r="F934" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Smoke_Suite_Test_Cases_FlipKz_final.xlsx
+++ b/Smoke_Suite_Test_Cases_FlipKz_final.xlsx
@@ -840,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:Z927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
